--- a/Solutions(1).xlsx
+++ b/Solutions(1).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
   <si>
     <t>Student Number</t>
   </si>
@@ -44,343 +44,325 @@
     <t>Dale Maher</t>
   </si>
   <si>
+    <t>Pauric O'Sullivan</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Ferdia Wilson</t>
+  </si>
+  <si>
+    <t>Cairan Power</t>
+  </si>
+  <si>
+    <t>Corrie O'Reilly</t>
+  </si>
+  <si>
+    <t>Jeremy Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Ricky Regan</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>Daryl O'Donnell</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Kieran Brown</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>Jacob Reid</t>
+  </si>
+  <si>
+    <t>playing ice hockey</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Pauric O'Sullivan</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Ferdia Wilson</t>
-  </si>
-  <si>
-    <t>Cairan Power</t>
-  </si>
-  <si>
-    <t>Corrie O'Reilly</t>
-  </si>
-  <si>
-    <t>Jeremy Fitzpatrick</t>
-  </si>
-  <si>
-    <t>Ricky Regan</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Daryl O'Donnell</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Kieran Brown</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>Jacob Reid</t>
+    <t>Jessie Lyons</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Eoghan Donnelly</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>Emmanuel Brennan</t>
+  </si>
+  <si>
+    <t>doing the Kessel run</t>
+  </si>
+  <si>
+    <t>Cailim Lyons</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>Kristian MacKenna</t>
+  </si>
+  <si>
+    <t>Abstract views on  climbing social ladders</t>
+  </si>
+  <si>
+    <t>Micheal Magee</t>
+  </si>
+  <si>
+    <t>punishing terrorists</t>
+  </si>
+  <si>
+    <t>Tiarnan O'Keeffe</t>
+  </si>
+  <si>
+    <t>writing political tracts</t>
+  </si>
+  <si>
+    <t>Clayton Kelly</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Colum Molony</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Stephen Kenny</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Griffin Moran</t>
+  </si>
+  <si>
+    <t>Abstract views on playing ice hockey</t>
+  </si>
+  <si>
+    <t>Fiachra O'Callaghan</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>Jim MacKenna</t>
   </si>
   <si>
     <t>starring in reality TV shows</t>
   </si>
   <si>
-    <t>Jessie Lyons</t>
-  </si>
-  <si>
-    <t>flaunting buttocks</t>
-  </si>
-  <si>
-    <t>Eoghan Donnelly</t>
+    <t>James Scott</t>
+  </si>
+  <si>
+    <t>promoting liberalism</t>
+  </si>
+  <si>
+    <t>Reuben MacDonald</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>Jonathon Hogan</t>
+  </si>
+  <si>
+    <t>Colman White</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>Charlie Johnston</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Maurice Campbell</t>
+  </si>
+  <si>
+    <t>Abstract views on writing pop songs</t>
+  </si>
+  <si>
+    <t>Padraic McLoughlin</t>
+  </si>
+  <si>
+    <t>Shay O'Neill</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Fergal Flynn</t>
+  </si>
+  <si>
+    <t>warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>Graeme Foley</t>
+  </si>
+  <si>
+    <t>Abstract views on reporting the news</t>
+  </si>
+  <si>
+    <t>Omar Hayes</t>
+  </si>
+  <si>
+    <t>Emanuel Foley</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Donnchadh Collins</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>Mitchell Hogan</t>
+  </si>
+  <si>
+    <t>writing polemics</t>
+  </si>
+  <si>
+    <t>Derry Scott</t>
+  </si>
+  <si>
+    <t>chasing terrorists</t>
+  </si>
+  <si>
+    <t>Darryl Fitzpatrick</t>
   </si>
   <si>
     <t>building rocket ships</t>
   </si>
   <si>
-    <t>Emmanuel Brennan</t>
-  </si>
-  <si>
-    <t>doing the Kessel run</t>
-  </si>
-  <si>
-    <t>Cailim Lyons</t>
-  </si>
-  <si>
-    <t>punishing terrorists</t>
-  </si>
-  <si>
-    <t>Kristian MacKenna</t>
+    <t>Reece Hogan</t>
   </si>
   <si>
     <t>Abstract views on building rocket ships</t>
   </si>
   <si>
-    <t>Micheal Magee</t>
+    <t>Lucas Gallagher</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>Kilian Reid</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Harold Magee</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>Conrad O'Keeffe</t>
+  </si>
+  <si>
+    <t>launching cultural revolutions</t>
+  </si>
+  <si>
+    <t>Eamonn Clarke</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>Kyle O'Donnell</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Fionnan Griffin</t>
+  </si>
+  <si>
+    <t>Abstract views on squandering money</t>
+  </si>
+  <si>
+    <t>Garreth Keane</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Kristian Brown</t>
+  </si>
+  <si>
+    <t>Abstract views on talking in riddles</t>
+  </si>
+  <si>
+    <t>Corrie MacMahon</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>George Moore</t>
+  </si>
+  <si>
+    <t>Abstract views on playing basketball</t>
+  </si>
+  <si>
+    <t>Billy Barry</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>Dane Johnston</t>
+  </si>
+  <si>
+    <t>Dara Flanagan</t>
+  </si>
+  <si>
+    <t>Eugene Brennan</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>Timmy Lyons</t>
+  </si>
+  <si>
+    <t>Liam Maguire</t>
+  </si>
+  <si>
+    <t>Abstract views on playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Cillin MacNamara</t>
   </si>
   <si>
     <t>tracking down terrorists</t>
   </si>
   <si>
-    <t>Tiarnan O'Keeffe</t>
-  </si>
-  <si>
-    <t>writing political tracts</t>
-  </si>
-  <si>
-    <t>Clayton Kelly</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>Colum Molony</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Griffin Moran</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Fiachra O'Callaghan</t>
-  </si>
-  <si>
-    <t>Abstract views on playing ice hockey</t>
-  </si>
-  <si>
-    <t>Liam Maguire</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>Jim MacKenna</t>
-  </si>
-  <si>
-    <t>promoting liberalism</t>
-  </si>
-  <si>
-    <t>Dara Flanagan</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Eugene Brennan</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>Conrad O'Keeffe</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Dane Johnston</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Corrie MacMahon</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Jonathon Hogan</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Maurice Campbell</t>
-  </si>
-  <si>
-    <t>Abstract views on writing pop songs</t>
-  </si>
-  <si>
-    <t>Shay O'Neill</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>Padraic McLoughlin</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Fergal Flynn</t>
-  </si>
-  <si>
-    <t>smoking Boyard cigarettes</t>
-  </si>
-  <si>
-    <t>Emanuel Foley</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>Omar Hayes</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Donnchadh Collins</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>Cillin MacNamara</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>Mitchell Hogan</t>
-  </si>
-  <si>
-    <t>writing polemics</t>
-  </si>
-  <si>
-    <t>Kilian Reid</t>
-  </si>
-  <si>
-    <t>chasing terrorists</t>
-  </si>
-  <si>
-    <t>Lucas Gallagher</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>Billy Barry</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders</t>
-  </si>
-  <si>
-    <t>Reece Hogan</t>
-  </si>
-  <si>
-    <t>eluding the CIA</t>
-  </si>
-  <si>
-    <t>Charlie Johnston</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Derry Scott</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>Harold Magee</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>Eamonn Clarke</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>Kyle O'Donnell</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>Colman White</t>
-  </si>
-  <si>
-    <t>Abstract views on talking in riddles</t>
-  </si>
-  <si>
-    <t>Fionnan Griffin</t>
-  </si>
-  <si>
-    <t>Abstract views on squandering money</t>
-  </si>
-  <si>
-    <t>Garreth Keane</t>
-  </si>
-  <si>
-    <t>Abstract views on playing basketball</t>
-  </si>
-  <si>
-    <t>James Scott</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>Kristian Brown</t>
-  </si>
-  <si>
-    <t>Abstract views on ruling over subjects</t>
-  </si>
-  <si>
-    <t>Reuben MacDonald</t>
-  </si>
-  <si>
-    <t>transcending physical limits</t>
-  </si>
-  <si>
-    <t>Stephen Kenny</t>
-  </si>
-  <si>
-    <t>Abstract views on playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Timmy Lyons</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>George Moore</t>
-  </si>
-  <si>
-    <t>Abstract views on flying airplanes</t>
-  </si>
-  <si>
-    <t>Darryl Fitzpatrick</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Graeme Foley</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
     <t>Cairan Scott</t>
   </si>
   <si>
-    <t>Abstract views on writing modern fiction</t>
+    <t>practicing the Occult</t>
   </si>
 </sst>
 </file>
@@ -464,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>7</v>
@@ -484,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>3.49</v>
+        <v>2.25</v>
       </c>
       <c r="D3" t="s" s="1">
         <v>7</v>
@@ -492,8 +474,8 @@
       <c r="E3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="1">
-        <v>10</v>
+      <c r="F3" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -501,19 +483,19 @@
         <v>947775.0</v>
       </c>
       <c r="B4" t="s" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>2.8</v>
+        <v>4.14</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="1">
         <v>8</v>
       </c>
       <c r="F4" t="n" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -521,19 +503,19 @@
         <v>244747.0</v>
       </c>
       <c r="B5" t="s" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>4.18</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="F5" t="s" s="1">
-        <v>10</v>
+      <c r="F5" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -541,19 +523,19 @@
         <v>384765.0</v>
       </c>
       <c r="B6" t="s" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="1">
         <v>8</v>
       </c>
       <c r="F6" t="n" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -561,19 +543,19 @@
         <v>515674.0</v>
       </c>
       <c r="B7" t="s" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>2.71</v>
+        <v>3.28</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="1">
         <v>8</v>
       </c>
       <c r="F7" t="n" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -581,19 +563,19 @@
         <v>969918.0</v>
       </c>
       <c r="B8" t="s" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="F8" t="s" s="1">
-        <v>10</v>
+      <c r="F8" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -601,16 +583,16 @@
         <v>154232.0</v>
       </c>
       <c r="B9" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s" s="1">
         <v>17</v>
-      </c>
-      <c r="C9" t="n" s="1">
-        <v>3.53</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s" s="1">
-        <v>18</v>
       </c>
       <c r="F9" t="n" s="1">
         <v>1.0</v>
@@ -621,19 +603,19 @@
         <v>276645.0</v>
       </c>
       <c r="B10" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="C10" t="n" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s" s="1">
-        <v>20</v>
-      </c>
       <c r="F10" t="n" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -641,16 +623,16 @@
         <v>328122.0</v>
       </c>
       <c r="B11" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s" s="1">
         <v>21</v>
-      </c>
-      <c r="C11" t="n" s="1">
-        <v>3.36</v>
-      </c>
-      <c r="D11" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="1">
-        <v>22</v>
       </c>
       <c r="F11" t="n" s="1">
         <v>1.0</v>
@@ -661,19 +643,19 @@
         <v>411364.0</v>
       </c>
       <c r="B12" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="C12" t="n" s="1">
-        <v>3.33</v>
-      </c>
-      <c r="D12" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s" s="1">
-        <v>24</v>
-      </c>
-      <c r="F12" t="n" s="1">
-        <v>1.0</v>
+      <c r="F12" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>3.22</v>
+        <v>2.56</v>
       </c>
       <c r="D13" t="s" s="1">
         <v>7</v>
@@ -692,8 +674,8 @@
       <c r="E13" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="F13" t="n" s="1">
-        <v>2.0</v>
+      <c r="F13" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -704,16 +686,16 @@
         <v>27</v>
       </c>
       <c r="C14" t="n" s="1">
-        <v>4.16</v>
+        <v>2.82</v>
       </c>
       <c r="D14" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="F14" t="n" s="1">
-        <v>1.0</v>
+      <c r="F14" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -724,10 +706,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="n" s="1">
-        <v>4.01</v>
+        <v>3.93</v>
       </c>
       <c r="D15" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s" s="1">
         <v>30</v>
@@ -744,16 +726,16 @@
         <v>31</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>3.03</v>
+        <v>2.61</v>
       </c>
       <c r="D16" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="F16" t="n" s="1">
-        <v>6.0</v>
+      <c r="F16" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -764,16 +746,16 @@
         <v>33</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>3.29</v>
+        <v>2.54</v>
       </c>
       <c r="D17" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="F17" t="n" s="1">
-        <v>1.0</v>
+      <c r="F17" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -784,16 +766,16 @@
         <v>35</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>4.14</v>
+        <v>3.44</v>
       </c>
       <c r="D18" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s" s="1">
         <v>36</v>
       </c>
       <c r="F18" t="n" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -804,7 +786,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>3.53</v>
+        <v>4.19</v>
       </c>
       <c r="D19" t="s" s="1">
         <v>7</v>
@@ -824,7 +806,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>3.28</v>
+        <v>3.69</v>
       </c>
       <c r="D20" t="s" s="1">
         <v>7</v>
@@ -832,8 +814,8 @@
       <c r="E20" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F20" t="s" s="1">
-        <v>10</v>
+      <c r="F20" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -844,7 +826,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>3.66</v>
+        <v>2.62</v>
       </c>
       <c r="D21" t="s" s="1">
         <v>7</v>
@@ -853,18 +835,18 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>685773.0</v>
+        <v>835241.0</v>
       </c>
       <c r="B22" t="s" s="1">
         <v>43</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>3.9</v>
+        <v>3.0</v>
       </c>
       <c r="D22" t="s" s="1">
         <v>7</v>
@@ -872,19 +854,19 @@
       <c r="E22" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="F22" t="n" s="1">
-        <v>3.0</v>
+      <c r="F22" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n" s="1">
-        <v>897379.0</v>
+        <v>685773.0</v>
       </c>
       <c r="B23" t="s" s="1">
         <v>45</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>3.33</v>
+        <v>2.67</v>
       </c>
       <c r="D23" t="s" s="1">
         <v>7</v>
@@ -893,18 +875,18 @@
         <v>46</v>
       </c>
       <c r="F23" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>253571.0</v>
+        <v>897379.0</v>
       </c>
       <c r="B24" t="s" s="1">
         <v>47</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>3.58</v>
+        <v>3.66</v>
       </c>
       <c r="D24" t="s" s="1">
         <v>7</v>
@@ -913,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="F24" t="n" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -924,7 +906,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="D25" t="s" s="1">
         <v>7</v>
@@ -933,18 +915,18 @@
         <v>50</v>
       </c>
       <c r="F25" t="n" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>913333.0</v>
+        <v>617853.0</v>
       </c>
       <c r="B26" t="s" s="1">
         <v>51</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>4.13</v>
+        <v>4.19</v>
       </c>
       <c r="D26" t="s" s="1">
         <v>7</v>
@@ -958,13 +940,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>658799.0</v>
+        <v>297811.0</v>
       </c>
       <c r="B27" t="s" s="1">
         <v>53</v>
       </c>
       <c r="C27" t="n" s="1">
-        <v>3.56</v>
+        <v>1.99</v>
       </c>
       <c r="D27" t="s" s="1">
         <v>7</v>
@@ -973,84 +955,84 @@
         <v>54</v>
       </c>
       <c r="F27" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n" s="1">
-        <v>999586.0</v>
+        <v>457269.0</v>
       </c>
       <c r="B28" t="s" s="1">
         <v>55</v>
       </c>
       <c r="C28" t="n" s="1">
-        <v>3.59</v>
+        <v>1.2</v>
       </c>
       <c r="D28" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E28" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="F28" t="n" s="1">
-        <v>9.0</v>
+        <v>52</v>
+      </c>
+      <c r="F28" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>882149.0</v>
+        <v>935788.0</v>
       </c>
       <c r="B29" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="C29" t="n" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D29" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="C29" t="n" s="1">
-        <v>3.86</v>
-      </c>
-      <c r="D29" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s" s="1">
-        <v>58</v>
-      </c>
       <c r="F29" t="n" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="1">
-        <v>914795.0</v>
+        <v>414769.0</v>
       </c>
       <c r="B30" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="C30" t="n" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="D30" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="C30" t="n" s="1">
-        <v>3.06</v>
-      </c>
-      <c r="D30" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="F30" t="s" s="1">
-        <v>10</v>
+      <c r="F30" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>457269.0</v>
+        <v>477278.0</v>
       </c>
       <c r="B31" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C31" t="n" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="D31" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s" s="1">
         <v>61</v>
-      </c>
-      <c r="C31" t="n" s="1">
-        <v>4.02</v>
-      </c>
-      <c r="D31" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s" s="1">
-        <v>62</v>
       </c>
       <c r="F31" t="n" s="1">
         <v>1.0</v>
@@ -1058,22 +1040,22 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>477278.0</v>
+        <v>799767.0</v>
       </c>
       <c r="B32" t="s" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n" s="1">
-        <v>4.08</v>
+        <v>2.88</v>
       </c>
       <c r="D32" t="s" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="F32" t="n" s="1">
-        <v>1.0</v>
+        <v>17</v>
+      </c>
+      <c r="F32" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1081,96 +1063,96 @@
         <v>183879.0</v>
       </c>
       <c r="B33" t="s" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="n" s="1">
-        <v>3.88</v>
+        <v>4.19</v>
       </c>
       <c r="D33" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E33" t="s" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" t="n" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>799767.0</v>
+        <v>496329.0</v>
       </c>
       <c r="B34" t="s" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="n" s="1">
-        <v>4.14</v>
+        <v>2.64</v>
       </c>
       <c r="D34" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E34" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="F34" t="n" s="1">
-        <v>1.0</v>
+        <v>66</v>
+      </c>
+      <c r="F34" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="1">
-        <v>496329.0</v>
+        <v>123448.0</v>
       </c>
       <c r="B35" t="s" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n" s="1">
-        <v>3.53</v>
+        <v>3.02</v>
       </c>
       <c r="D35" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="F35" t="n" s="1">
-        <v>1.0</v>
+        <v>68</v>
+      </c>
+      <c r="F35" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="1">
-        <v>187482.0</v>
+        <v>171972.0</v>
       </c>
       <c r="B36" t="s" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="n" s="1">
-        <v>2.66</v>
+        <v>1.78</v>
       </c>
       <c r="D36" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E36" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="F36" t="n" s="1">
-        <v>7.0</v>
+        <v>42</v>
+      </c>
+      <c r="F36" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>171972.0</v>
+        <v>187482.0</v>
       </c>
       <c r="B37" t="s" s="1">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="n" s="1">
-        <v>3.93</v>
+        <v>3.35</v>
       </c>
       <c r="D37" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E37" t="s" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F37" t="n" s="1">
         <v>1.0</v>
@@ -1181,56 +1163,56 @@
         <v>548266.0</v>
       </c>
       <c r="B38" t="s" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" t="n" s="1">
-        <v>2.86</v>
+        <v>4.09</v>
       </c>
       <c r="D38" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s" s="1">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F38" t="n" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="1">
-        <v>217153.0</v>
+        <v>413454.0</v>
       </c>
       <c r="B39" t="s" s="1">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" t="n" s="1">
-        <v>3.22</v>
+        <v>3.45</v>
       </c>
       <c r="D39" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F39" t="n" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>413454.0</v>
+        <v>376337.0</v>
       </c>
       <c r="B40" t="s" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" t="n" s="1">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F40" t="n" s="1">
         <v>1.0</v>
@@ -1238,19 +1220,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n" s="1">
-        <v>419876.0</v>
+        <v>638336.0</v>
       </c>
       <c r="B41" t="s" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" t="n" s="1">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="D41" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41" t="n" s="1">
         <v>1.0</v>
@@ -1258,199 +1240,199 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="1">
-        <v>461296.0</v>
+        <v>758584.0</v>
       </c>
       <c r="B42" t="s" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" t="n" s="1">
-        <v>4.04</v>
+        <v>3.6</v>
       </c>
       <c r="D42" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F42" t="n" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="1">
-        <v>955281.0</v>
+        <v>461296.0</v>
       </c>
       <c r="B43" t="s" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" t="n" s="1">
-        <v>3.96</v>
+        <v>4.17</v>
       </c>
       <c r="D43" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s" s="1">
-        <v>86</v>
-      </c>
-      <c r="F43" t="s" s="1">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="F43" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>758584.0</v>
+        <v>419876.0</v>
       </c>
       <c r="B44" t="s" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" t="n" s="1">
-        <v>4.12</v>
+        <v>2.84</v>
       </c>
       <c r="D44" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F44" t="n" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="1">
-        <v>414769.0</v>
+        <v>119242.0</v>
       </c>
       <c r="B45" t="s" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="n" s="1">
-        <v>2.81</v>
+        <v>3.56</v>
       </c>
       <c r="D45" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E45" t="s" s="1">
-        <v>90</v>
-      </c>
-      <c r="F45" t="s" s="1">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="F45" t="n" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="1">
-        <v>376337.0</v>
+        <v>999586.0</v>
       </c>
       <c r="B46" t="s" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" t="n" s="1">
-        <v>1.71</v>
+        <v>2.62</v>
       </c>
       <c r="D46" t="s" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s" s="1">
-        <v>92</v>
-      </c>
-      <c r="F46" t="s" s="1">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="F46" t="n" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="1">
-        <v>119242.0</v>
+        <v>329994.0</v>
       </c>
       <c r="B47" t="s" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C47" t="n" s="1">
-        <v>2.62</v>
+        <v>3.06</v>
       </c>
       <c r="D47" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s" s="1">
-        <v>94</v>
-      </c>
-      <c r="F47" t="s" s="1">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="F47" t="n" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>329994.0</v>
+        <v>945772.0</v>
       </c>
       <c r="B48" t="s" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" t="n" s="1">
-        <v>3.55</v>
+        <v>4.07</v>
       </c>
       <c r="D48" t="s" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s" s="1">
-        <v>96</v>
-      </c>
-      <c r="F48" t="s" s="1">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="F48" t="n" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="1">
-        <v>945772.0</v>
+        <v>667438.0</v>
       </c>
       <c r="B49" t="s" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" t="n" s="1">
-        <v>3.42</v>
+        <v>2.74</v>
       </c>
       <c r="D49" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F49" t="n" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="1">
-        <v>935788.0</v>
+        <v>166124.0</v>
       </c>
       <c r="B50" t="s" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" t="n" s="1">
-        <v>2.58</v>
+        <v>1.98</v>
       </c>
       <c r="D50" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E50" t="s" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>667438.0</v>
+        <v>118163.0</v>
       </c>
       <c r="B51" t="s" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n" s="1">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="D51" t="s" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F51" t="n" s="1">
         <v>5.0</v>
@@ -1458,39 +1440,39 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="1">
-        <v>166124.0</v>
+        <v>914795.0</v>
       </c>
       <c r="B52" t="s" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n" s="1">
-        <v>3.26</v>
+        <v>3.39</v>
       </c>
       <c r="D52" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E52" t="s" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F52" t="n" s="1">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="1">
-        <v>617853.0</v>
+        <v>149612.0</v>
       </c>
       <c r="B53" t="s" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53" t="n" s="1">
-        <v>3.85</v>
+        <v>3.47</v>
       </c>
       <c r="D53" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E53" t="s" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F53" t="n" s="1">
         <v>6.0</v>
@@ -1498,142 +1480,142 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>118163.0</v>
+        <v>955281.0</v>
       </c>
       <c r="B54" t="s" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" t="n" s="1">
-        <v>3.69</v>
+        <v>3.44</v>
       </c>
       <c r="D54" t="s" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s" s="1">
-        <v>108</v>
-      </c>
-      <c r="F54" t="s" s="1">
-        <v>10</v>
+        <v>105</v>
+      </c>
+      <c r="F54" t="n" s="1">
+        <v>7.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>297811.0</v>
+        <v>882149.0</v>
       </c>
       <c r="B55" t="s" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" t="n" s="1">
-        <v>3.7</v>
+        <v>2.54</v>
       </c>
       <c r="D55" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E55" t="s" s="1">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="1">
-        <v>835241.0</v>
+        <v>913333.0</v>
       </c>
       <c r="B56" t="s" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C56" t="n" s="1">
-        <v>1.87</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E56" t="s" s="1">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="1">
-        <v>421587.0</v>
+        <v>658799.0</v>
       </c>
       <c r="B57" t="s" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C57" t="n" s="1">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="D57" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E57" t="s" s="1">
-        <v>114</v>
-      </c>
-      <c r="F57" t="n" s="1">
-        <v>3.0</v>
+        <v>109</v>
+      </c>
+      <c r="F57" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="1">
-        <v>149612.0</v>
+        <v>421587.0</v>
       </c>
       <c r="B58" t="s" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C58" t="n" s="1">
-        <v>2.81</v>
+        <v>2.58</v>
       </c>
       <c r="D58" t="s" s="1">
         <v>7</v>
       </c>
       <c r="E58" t="s" s="1">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="1">
-        <v>638336.0</v>
+        <v>253571.0</v>
       </c>
       <c r="B59" t="s" s="1">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C59" t="n" s="1">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="D59" t="s" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s" s="1">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="1">
-        <v>123448.0</v>
+        <v>217153.0</v>
       </c>
       <c r="B60" t="s" s="1">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C60" t="n" s="1">
-        <v>1.68</v>
+        <v>3.45</v>
       </c>
       <c r="D60" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s" s="1">
-        <v>120</v>
-      </c>
-      <c r="F60" t="s" s="1">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="F60" t="n" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -1641,19 +1623,19 @@
         <v>989793.0</v>
       </c>
       <c r="B61" t="s" s="1">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C61" t="n" s="1">
-        <v>3.61</v>
+        <v>2.77</v>
       </c>
       <c r="D61" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s" s="1">
-        <v>122</v>
-      </c>
-      <c r="F61" t="n" s="1">
-        <v>7.0</v>
+        <v>116</v>
+      </c>
+      <c r="F61" t="s" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Solutions(1).xlsx
+++ b/Solutions(1).xlsx
@@ -626,7 +626,7 @@
     <t>Colin Farrell</t>
   </si>
   <si>
-    <t>Assessing When it is Appropriate to do Data Mining and/or Machine Learning</t>
+    <t>Deep Learning for protein subcellular localisation prediction</t>
   </si>
   <si>
     <t>None</t>
@@ -635,43 +635,43 @@
     <t>Enrico Caruso</t>
   </si>
   <si>
+    <t>Narrative Emotion</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Deep Colourisation</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Data Analytics for AHA Case History Forms</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forecasting Electricity Load for Commercial Buildings </t>
   </si>
   <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Graph Indexing: Case Study on Textile Structure</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Give Your Skills: Volunteer Platform for Project Management</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>Deep Learning for protein subcellular localisation prediction</t>
-  </si>
-  <si>
     <t>Adam Sandler</t>
   </si>
   <si>
-    <t>Predicting Protein Contact Maps post-Google</t>
+    <t>Standalone Software Metrics Tool</t>
   </si>
   <si>
     <t>Basil Fawlty</t>
   </si>
   <si>
-    <t>Deep Colourisation</t>
+    <t xml:space="preserve">Investigating Wavelet-Based Symbolic Representations for Time Series Classification </t>
   </si>
   <si>
     <t>Ann Coulter</t>
   </si>
   <si>
-    <t>Identifying systematic bias in Bayesian statistical modelling</t>
+    <t>Simulation of Hadoop Task Scheduling Algorithms in Distributed Computing Environments</t>
   </si>
 </sst>
 </file>
